--- a/premise/data/additional_inventories/lci-lithium.xlsx
+++ b/premise/data/additional_inventories/lci-lithium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5317ABC-C82B-3A4D-B606-C74C21E9B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EF050B-8D21-9A43-A543-C0EFDF01029A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35580" yWindow="3820" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="1" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="847" activeTab="6" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'LCI - Salar de Cauchari-Olaroz'!$A$1:$M$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LCI - Salar de Olaroz'!$A$1:$M$88</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="158">
   <si>
     <t>database</t>
   </si>
@@ -475,9 +475,6 @@
   </si>
   <si>
     <t>lithium carbonate production, from Chaerhan salt Lake</t>
-  </si>
-  <si>
-    <t>lithium carbonate production, from Chaerhan salt lake</t>
   </si>
   <si>
     <t>lithium carbonate, battery grade</t>
@@ -989,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99707D-554A-864F-96F5-71793F44A41F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1083,7 +1080,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1133,7 +1130,7 @@
         <v>134</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
@@ -1157,7 +1154,7 @@
         <v>135</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1182,7 +1179,7 @@
         <v>136</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>55</v>
@@ -1206,7 +1203,7 @@
         <v>137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
@@ -1230,7 +1227,7 @@
         <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>55</v>
@@ -1254,7 +1251,7 @@
         <v>139</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
@@ -1275,23 +1272,23 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D18">
-        <f ca="1">16000*0.001</f>
+        <f>16000*0.001</f>
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
@@ -1302,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1316,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1372,7 +1369,7 @@
         <v>84</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1419,10 +1416,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>45</v>
@@ -1443,10 +1440,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -1466,10 +1463,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>45</v>
@@ -1482,7 +1479,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>27</v>
@@ -4420,7 +4417,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -4511,7 +4508,7 @@
         <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>5</v>
@@ -6143,7 +6140,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6231,7 +6228,7 @@
         <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
         <v>55</v>
@@ -6260,7 +6257,7 @@
         <v>55</v>
       </c>
       <c r="D78">
-        <f ca="1">24.65*0.5*1.33*1.5</f>
+        <f>24.65*0.5*1.33*1.5</f>
         <v>24.588374999999999</v>
       </c>
       <c r="E78" t="s">
@@ -6284,7 +6281,7 @@
         <v>37</v>
       </c>
       <c r="D79">
-        <f ca="1">0.01*0.5*1.33*1.5</f>
+        <f>0.01*0.5*1.33*1.5</f>
         <v>9.9750000000000012E-3</v>
       </c>
       <c r="E79" t="s">
@@ -6308,7 +6305,7 @@
         <v>55</v>
       </c>
       <c r="D80">
-        <f ca="1">1*1.33*1.5</f>
+        <f>1*1.33*1.5</f>
         <v>1.9950000000000001</v>
       </c>
       <c r="E80" t="s">
@@ -6332,7 +6329,7 @@
         <v>37</v>
       </c>
       <c r="D81">
-        <f ca="1">0.387*1.33*1.5</f>
+        <f>0.387*1.33*1.5</f>
         <v>0.772065</v>
       </c>
       <c r="E81" t="s">
@@ -6356,7 +6353,7 @@
         <v>37</v>
       </c>
       <c r="D82">
-        <f ca="1">0.0067*1.5</f>
+        <f>0.0067*1.5</f>
         <v>1.005E-2</v>
       </c>
       <c r="E82" t="s">
@@ -8676,7 +8673,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8768,7 +8765,7 @@
         <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121" t="s">
         <v>55</v>
@@ -10694,7 +10691,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -10786,7 +10783,7 @@
         <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
         <v>55</v>
@@ -11047,8 +11044,8 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12713,7 +12710,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -12721,7 +12718,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -12810,10 +12807,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C98" t="s">
         <v>59</v>
@@ -13086,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -13094,7 +13091,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -13126,7 +13123,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -13183,10 +13180,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -13209,13 +13206,13 @@
         <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="9">
-        <f ca="1">0.575440888308295*1.05</f>
+        <f>0.575440888308295*1.05</f>
         <v>0.60421293272370979</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -13233,13 +13230,13 @@
         <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="9">
-        <f ca="1">0.0783801436969301*1.05</f>
+        <f>0.0783801436969301*1.05</f>
         <v>8.2299150881776612E-2</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -13257,13 +13254,13 @@
         <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="9">
-        <f ca="1">0.261267145656434*1.05</f>
+        <f>0.261267145656434*1.05</f>
         <v>0.2743305029392557</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -13281,13 +13278,13 @@
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="9">
-        <f ca="1">0.0326583932070542*1.05</f>
+        <f>0.0326583932070542*1.05</f>
         <v>3.4291312867406915E-2</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -13305,13 +13302,13 @@
         <v>139</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="9">
-        <f ca="1">0.0522534291312867*1.05</f>
+        <f>0.0522534291312867*1.05</f>
         <v>5.486610058785104E-2</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -13326,10 +13323,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>37</v>
@@ -13341,7 +13338,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>27</v>
@@ -13352,7 +13349,7 @@
         <v>53</v>
       </c>
       <c r="D16">
-        <f ca="1">0.5/1000</f>
+        <f>0.5/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E16" t="s">
@@ -13379,23 +13376,23 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
         <v>148</v>
-      </c>
-      <c r="B17" t="s">
-        <v>149</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17">
-        <f ca="1">5000/3.6/1000</f>
+        <f>5000/3.6/1000</f>
         <v>1.3888888888888888</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>27</v>
@@ -13403,23 +13400,23 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" t="s">
-        <v>151</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="D18">
-        <f ca="1">3000/1000</f>
+        <f>3000/1000</f>
         <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
@@ -13442,7 +13439,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>27</v>
@@ -13450,10 +13447,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20">
-        <f ca="1">0.1/1000</f>
+        <f>0.1/1000</f>
         <v>1E-4</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -13471,10 +13468,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21">
-        <f ca="1">0.05/1000</f>
+        <f>0.05/1000</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E21" s="2" t="s">

--- a/premise/data/additional_inventories/lci-lithium.xlsx
+++ b/premise/data/additional_inventories/lci-lithium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32CD64A-5146-1A47-975F-6905EF2A7740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD59F9B-73C5-9745-8790-F5EF051E0105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="2020" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="1" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
+    <workbookView xWindow="680" yWindow="2020" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="6" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="158">
   <si>
     <t>database</t>
   </si>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t>lithium carbonate production, from Salar del Hombre Muerto</t>
-  </si>
-  <si>
-    <t>lithium carbonate production, from Chaerhan salt Lake</t>
   </si>
   <si>
     <t>lithium carbonate production, from Chaerhan salt lake</t>
@@ -989,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99707D-554A-864F-96F5-71793F44A41F}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1083,7 +1080,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1133,7 +1130,7 @@
         <v>134</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
@@ -1157,7 +1154,7 @@
         <v>135</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1182,7 +1179,7 @@
         <v>136</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>55</v>
@@ -1206,7 +1203,7 @@
         <v>137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
@@ -1230,7 +1227,7 @@
         <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>55</v>
@@ -1254,7 +1251,7 @@
         <v>139</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
@@ -1275,10 +1272,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>45</v>
@@ -1291,7 +1288,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
@@ -1302,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1316,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1372,7 +1369,7 @@
         <v>84</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1419,10 +1416,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>45</v>
@@ -1443,10 +1440,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -1466,10 +1463,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>45</v>
@@ -1482,7 +1479,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>27</v>
@@ -4420,7 +4417,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -4511,7 +4508,7 @@
         <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>5</v>
@@ -6143,7 +6140,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6231,7 +6228,7 @@
         <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
         <v>55</v>
@@ -8676,7 +8673,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8768,7 +8765,7 @@
         <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121" t="s">
         <v>55</v>
@@ -10694,7 +10691,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -10786,7 +10783,7 @@
         <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
         <v>55</v>
@@ -11047,8 +11044,8 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12713,7 +12710,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -12721,7 +12718,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -12810,10 +12807,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C98" t="s">
         <v>59</v>
@@ -13072,7 +13069,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13086,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -13094,7 +13091,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -13126,7 +13123,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -13183,10 +13180,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -13209,7 +13206,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -13233,7 +13230,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
@@ -13257,7 +13254,7 @@
         <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>55</v>
@@ -13281,7 +13278,7 @@
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
@@ -13305,7 +13302,7 @@
         <v>139</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>59</v>
@@ -13326,10 +13323,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>37</v>
@@ -13341,7 +13338,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>27</v>
@@ -13379,10 +13376,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
         <v>148</v>
-      </c>
-      <c r="B17" t="s">
-        <v>149</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -13395,7 +13392,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>27</v>
@@ -13403,10 +13400,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" t="s">
-        <v>151</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -13419,7 +13416,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
@@ -13442,7 +13439,7 @@
         <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>27</v>
@@ -13450,7 +13447,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20">
         <f>0.1/1000</f>
@@ -13471,7 +13468,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21">
         <f>0.05/1000</f>

--- a/premise/data/additional_inventories/lci-lithium.xlsx
+++ b/premise/data/additional_inventories/lci-lithium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28434285-8471-FD4B-A5A5-F95D4840CA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995736C-4528-6444-9125-4E59C7A7F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="2020" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="6" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
+    <workbookView xWindow="32700" yWindow="180" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="4" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'LCI - Salar de Cauchari-Olaroz'!$A$1:$M$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LCI - Salar de Olaroz'!$A$1:$M$88</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -195,9 +195,6 @@
     <t>GLO</t>
   </si>
   <si>
-    <t>sodium hydroxide to generic market for neutralising agent</t>
-  </si>
-  <si>
     <t>neutralising agent, sodium hydroxide-equivalent</t>
   </si>
   <si>
@@ -531,6 +528,9 @@
   <si>
     <t>Source: Jarod C. Kelly, Michael Wang, Qiang Dai, Olumide Winjobi, Energy, greenhouse gas, and water life cycle analysis of lithium carbonate and lithium hydroxide monohydrate from brine and ore resources and their use in lithium ion battery cathodes and lithium ion batteries, Resources, Conservation and Recycling, Volume 174, 2021, 105762, ISSN 0921-3449, https://doi.org/10.1016/j.resconrec.2021.105762.
 The market LCI dataset was not part of the publication. Inventories covers a production volume of 88'100t + 12'000tt + 40'000t + 5'000t + 8'000 = 153'100t. Further assumes 20'400 km of shipping from Argentina/Chile to China. Uses lithium carbonate as input from Schenker et al. Further considers 16'000 km of shipping from Argentina/Chile to China (Kelly et al.).</t>
+  </si>
+  <si>
+    <t>market for neutralising agent, sodium hydroxide-equivalent</t>
   </si>
 </sst>
 </file>
@@ -624,9 +624,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -664,7 +664,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -770,7 +770,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,7 +912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -938,37 +938,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1005,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1042,10 +1042,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1079,10 +1079,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5">
         <f>12000/153100</f>
@@ -1150,13 +1150,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5">
         <f>40000/153100</f>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5">
         <f>5000/153100</f>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
         <v>139</v>
       </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="5">
         <f>8000/153100</f>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1238,7 +1238,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1286,10 +1286,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1323,10 +1323,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
         <v>45</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
         <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -1361,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -1385,7 +1385,7 @@
         <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -1403,8 +1403,8 @@
   </sheetPr>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1462,10 +1462,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1516,10 +1516,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
         <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>1E-3</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1641,10 +1641,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1752,13 +1752,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>1E-3</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1821,10 +1821,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1875,10 +1875,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
         <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1970,10 +1970,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2024,10 +2024,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
         <v>108</v>
-      </c>
-      <c r="B48" t="s">
-        <v>109</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -2311,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -2340,10 +2340,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -2394,10 +2394,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" t="s">
         <v>92</v>
-      </c>
-      <c r="B62" t="s">
-        <v>93</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" t="s">
         <v>88</v>
-      </c>
-      <c r="B63" t="s">
-        <v>89</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
         <v>86</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
         <v>46</v>
-      </c>
-      <c r="B67" t="s">
-        <v>47</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2630,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -2638,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -2667,10 +2667,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -2721,10 +2721,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
         <v>94</v>
-      </c>
-      <c r="B78" t="s">
-        <v>95</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2736,7 +2736,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G78" t="s">
         <v>18</v>
@@ -2760,7 +2760,7 @@
         <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
         <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>93</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2798,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" t="s">
         <v>49</v>
-      </c>
-      <c r="B82" t="s">
-        <v>50</v>
       </c>
       <c r="C82" t="s">
         <v>45</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2916,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -2924,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -2953,10 +2953,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3007,10 +3007,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
         <v>97</v>
-      </c>
-      <c r="B93" t="s">
-        <v>98</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3030,10 +3030,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
         <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>95</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3102,10 +3102,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
         <v>51</v>
-      </c>
-      <c r="B96" t="s">
-        <v>52</v>
       </c>
       <c r="C96" t="s">
         <v>37</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3175,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -3183,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -3212,10 +3212,10 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -3266,10 +3266,10 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3324,10 +3324,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" t="s">
         <v>97</v>
-      </c>
-      <c r="B109" t="s">
-        <v>98</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" t="s">
         <v>49</v>
-      </c>
-      <c r="B111" t="s">
-        <v>50</v>
       </c>
       <c r="C111" t="s">
         <v>45</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3471,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -3508,10 +3508,10 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -3562,10 +3562,10 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3729,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -3737,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -3766,10 +3766,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -3820,10 +3820,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3843,10 +3843,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B138" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3959,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -3996,10 +3996,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -4050,10 +4050,10 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B149" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B151" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4277,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -4285,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4293,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4314,10 +4314,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -4368,13 +4368,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4397,7 +4397,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>3.6029999999999999E-3</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>1E-3</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -4492,10 +4492,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -4546,13 +4546,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4561,7 +4561,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -4671,10 +4671,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -4706,13 +4706,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="B26" t="s">
-        <v>109</v>
-      </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <v>0.17847791948095601</v>
@@ -4721,7 +4721,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
@@ -4828,7 +4828,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4836,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -4844,7 +4844,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -4865,10 +4865,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -4919,13 +4919,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4934,7 +4934,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
@@ -4945,13 +4945,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>0.66142198976273825</v>
@@ -4960,7 +4960,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
         <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -5084,13 +5084,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44">
         <v>0.30758818433608037</v>
@@ -5099,7 +5099,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
@@ -5122,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -5130,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -5138,7 +5138,7 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -5159,10 +5159,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -5213,13 +5213,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
         <v>18</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
@@ -5271,13 +5271,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56">
         <v>1.0507597273268783</v>
@@ -5286,7 +5286,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
         <v>108</v>
       </c>
-      <c r="B59" t="s">
-        <v>109</v>
-      </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59">
         <v>0.99831917527537961</v>
@@ -5391,7 +5391,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -5466,13 +5466,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
         <v>108</v>
       </c>
-      <c r="B62" t="s">
-        <v>109</v>
-      </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D62">
         <v>7.2721312423965934</v>
@@ -5481,7 +5481,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
         <v>27</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>45</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65">
         <v>1.1780852612682483E-2</v>
@@ -5550,12 +5550,12 @@
         <v>21</v>
       </c>
       <c r="H65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66">
         <v>1.6725901857512168E-3</v>
@@ -5570,12 +5570,12 @@
         <v>21</v>
       </c>
       <c r="H66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67">
         <v>5.0904918696776183E-4</v>
@@ -5590,7 +5590,7 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5598,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -5606,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -5614,7 +5614,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -5635,10 +5635,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -5674,13 +5674,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -5689,7 +5689,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G77" t="s">
         <v>18</v>
@@ -5697,13 +5697,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D78">
         <f>24.65*0.5*1.33*1.5</f>
@@ -5713,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
@@ -5745,13 +5745,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s">
         <v>108</v>
       </c>
-      <c r="B80" t="s">
-        <v>109</v>
-      </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D80">
         <f>1*1.33*1.5</f>
@@ -5761,7 +5761,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
         <v>41</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
         <v>24</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
         <v>41</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
@@ -5874,8 +5874,8 @@
   </sheetPr>
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5894,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5902,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5910,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -5931,10 +5931,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -5985,13 +5985,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6000,7 +6000,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -6046,7 +6046,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>4.9495489419640352E-3</v>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -6142,13 +6142,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>0.56621125225181224</v>
@@ -6157,7 +6157,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -6264,7 +6264,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -6280,7 +6280,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -6301,10 +6301,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -6355,13 +6355,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -6370,7 +6370,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -6378,13 +6378,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>1.0404624277456651</v>
@@ -6393,7 +6393,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
@@ -6448,10 +6448,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
         <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -6463,7 +6463,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -6483,10 +6483,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -6518,13 +6518,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>0.25994900546163102</v>
@@ -6533,7 +6533,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -6556,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -6564,7 +6564,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -6572,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -6593,10 +6593,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -6647,13 +6647,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -6662,7 +6662,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
@@ -6670,13 +6670,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>0.16660855557628931</v>
@@ -6685,7 +6685,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -6728,10 +6728,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
         <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -6763,13 +6763,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
         <v>108</v>
       </c>
-      <c r="B46" t="s">
-        <v>109</v>
-      </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>2.7893323381131979E-4</v>
@@ -6778,7 +6778,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
@@ -6801,7 +6801,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -6809,7 +6809,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -6817,7 +6817,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -6838,10 +6838,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -6892,13 +6892,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -6907,7 +6907,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G56" t="s">
         <v>18</v>
@@ -6921,7 +6921,7 @@
         <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>1.0652177002029011E-3</v>
@@ -6947,13 +6947,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>0.99966584172887607</v>
@@ -6962,7 +6962,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
         <v>27</v>
@@ -6982,10 +6982,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
         <v>51</v>
-      </c>
-      <c r="B59" t="s">
-        <v>52</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
@@ -7017,13 +7017,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
         <v>108</v>
       </c>
-      <c r="B60" t="s">
-        <v>109</v>
-      </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60">
         <v>4.4443422914097969E-4</v>
@@ -7032,7 +7032,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
         <v>27</v>
@@ -7055,7 +7055,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -7092,10 +7092,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -7146,13 +7146,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
         <v>119</v>
       </c>
-      <c r="B70" t="s">
-        <v>120</v>
-      </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -7161,7 +7161,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
         <v>18</v>
@@ -7175,7 +7175,7 @@
         <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D71">
         <v>1.0672197919344695E-3</v>
@@ -7201,13 +7201,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D72">
         <v>1.0015447278154255</v>
@@ -7216,7 +7216,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
@@ -7236,10 +7236,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
         <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>37</v>
@@ -7271,13 +7271,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
         <v>108</v>
       </c>
-      <c r="B74" t="s">
-        <v>109</v>
-      </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D74">
         <v>3.7774428151253442E-3</v>
@@ -7286,7 +7286,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -7317,7 +7317,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -7325,7 +7325,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -7346,10 +7346,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -7400,13 +7400,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -7415,7 +7415,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G84" t="s">
         <v>18</v>
@@ -7423,13 +7423,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
         <v>119</v>
       </c>
-      <c r="B85" t="s">
-        <v>120</v>
-      </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D85">
         <v>0.78087814402253886</v>
@@ -7438,7 +7438,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
@@ -7464,7 +7464,7 @@
         <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D86">
         <v>1.9209602342954454E-3</v>
@@ -7522,10 +7522,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" t="s">
         <v>63</v>
-      </c>
-      <c r="B88" t="s">
-        <v>64</v>
       </c>
       <c r="C88" t="s">
         <v>45</v>
@@ -7560,7 +7560,7 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D89">
         <v>1.4197784436773438E-3</v>
@@ -7653,10 +7653,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
         <v>49</v>
-      </c>
-      <c r="B92" t="s">
-        <v>50</v>
       </c>
       <c r="C92" t="s">
         <v>45</v>
@@ -7688,13 +7688,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
         <v>108</v>
       </c>
-      <c r="B93" t="s">
-        <v>109</v>
-      </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D93">
         <v>0.28621700851257342</v>
@@ -7703,7 +7703,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G93" t="s">
         <v>27</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D94">
         <v>3.7950677799495399E-3</v>
@@ -7738,7 +7738,7 @@
         <v>21</v>
       </c>
       <c r="H94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D95">
         <v>5.3880591937555198E-4</v>
@@ -7779,7 +7779,7 @@
         <v>21</v>
       </c>
       <c r="H95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D96">
         <v>1.6398441024473301E-4</v>
@@ -7820,7 +7820,7 @@
         <v>21</v>
       </c>
       <c r="H96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -7849,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -7857,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -7865,7 +7865,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -7886,10 +7886,10 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -7940,13 +7940,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -7955,7 +7955,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G106" t="s">
         <v>18</v>
@@ -7963,13 +7963,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D107">
         <v>1.3495665548704479</v>
@@ -7978,7 +7978,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G107" t="s">
         <v>27</v>
@@ -8004,7 +8004,7 @@
         <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D108">
         <v>1.438062722402936E-3</v>
@@ -8030,13 +8030,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
       <c r="C109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D109">
         <v>7.5398896660293688E-2</v>
@@ -8045,7 +8045,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G109" t="s">
         <v>27</v>
@@ -8126,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -8134,7 +8134,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8142,7 +8142,7 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -8163,10 +8163,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -8217,13 +8217,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -8232,7 +8232,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G121" t="s">
         <v>18</v>
@@ -8240,13 +8240,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D122">
         <v>26.525587091955867</v>
@@ -8255,7 +8255,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G122" t="s">
         <v>27</v>
@@ -8281,7 +8281,7 @@
         <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D123">
         <v>2.927400468384074E-2</v>
@@ -8307,13 +8307,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" t="s">
         <v>108</v>
       </c>
-      <c r="B124" t="s">
-        <v>109</v>
-      </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D124">
         <v>1.9999999999999996</v>
@@ -8322,7 +8322,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G124" t="s">
         <v>27</v>
@@ -8383,7 +8383,7 @@
         <v>24</v>
       </c>
       <c r="C126" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D126">
         <v>3.7295081967213123E-3</v>
@@ -8447,7 +8447,7 @@
         <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D128">
         <v>0.3</v>
@@ -8485,7 +8485,7 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8504,7 +8504,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -8512,7 +8512,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -8520,7 +8520,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -8541,10 +8541,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -8595,13 +8595,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -8656,7 +8656,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>5.2753186487926717E-3</v>
@@ -8717,10 +8717,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -8752,13 +8752,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>0.1287314802939144</v>
@@ -8767,7 +8767,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -8874,7 +8874,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -8882,7 +8882,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -8890,7 +8890,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -8911,10 +8911,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -8965,13 +8965,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -8980,7 +8980,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -8994,7 +8994,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>1.0798785240464343E-3</v>
@@ -9020,13 +9020,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>1.001795922707208</v>
@@ -9035,7 +9035,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -9113,10 +9113,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
         <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -9128,7 +9128,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -9148,10 +9148,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -9183,13 +9183,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
         <v>108</v>
       </c>
-      <c r="B34" t="s">
-        <v>109</v>
-      </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>2.321022919173869E-2</v>
@@ -9198,7 +9198,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
@@ -9221,7 +9221,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -9229,7 +9229,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -9237,7 +9237,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -9258,10 +9258,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -9312,13 +9312,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -9327,7 +9327,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
@@ -9335,13 +9335,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45">
         <v>0.99323801490440133</v>
@@ -9350,7 +9350,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
         <v>27</v>
@@ -9376,7 +9376,7 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>1.0706545765967841E-3</v>
@@ -9437,10 +9437,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
@@ -9472,13 +9472,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49">
         <v>6.7619850955986781E-3</v>
@@ -9487,7 +9487,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -9510,7 +9510,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -9518,7 +9518,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -9526,7 +9526,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -9547,10 +9547,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -9601,13 +9601,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -9616,7 +9616,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s">
         <v>18</v>
@@ -9630,7 +9630,7 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60">
         <v>2.1250963723678339E-5</v>
@@ -9656,13 +9656,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61">
         <v>0.72843387670453408</v>
@@ -9671,7 +9671,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
@@ -9714,10 +9714,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
         <v>49</v>
-      </c>
-      <c r="B63" t="s">
-        <v>50</v>
       </c>
       <c r="C63" t="s">
         <v>45</v>
@@ -9749,13 +9749,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
         <v>108</v>
       </c>
-      <c r="B64" t="s">
-        <v>109</v>
-      </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64">
         <v>0.24864043966518501</v>
@@ -9764,7 +9764,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
@@ -9787,7 +9787,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -9803,7 +9803,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -9824,10 +9824,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -9878,13 +9878,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G74" t="s">
         <v>18</v>
@@ -9901,13 +9901,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D75">
         <v>1.177094713258485</v>
@@ -9916,7 +9916,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
@@ -9942,7 +9942,7 @@
         <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D76">
         <v>5.6100290333411344E-3</v>
@@ -9968,13 +9968,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
         <v>108</v>
       </c>
-      <c r="B77" t="s">
-        <v>109</v>
-      </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D77">
         <v>7.3451875453676471E-2</v>
@@ -9983,7 +9983,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
@@ -10035,13 +10035,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
         <v>108</v>
       </c>
-      <c r="B79" t="s">
-        <v>109</v>
-      </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D79">
         <v>1.0089543331548967</v>
@@ -10050,7 +10050,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
@@ -10108,7 +10108,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -10116,7 +10116,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -10124,7 +10124,7 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -10145,10 +10145,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -10199,13 +10199,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -10214,7 +10214,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G90" t="s">
         <v>18</v>
@@ -10222,13 +10222,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D91">
         <v>27.228712509339942</v>
@@ -10237,7 +10237,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G91" t="s">
         <v>27</v>
@@ -10263,7 +10263,7 @@
         <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D92">
         <v>1.4999999999999996E-2</v>
@@ -10289,13 +10289,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
         <v>108</v>
       </c>
-      <c r="B93" t="s">
-        <v>109</v>
-      </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D93">
         <v>1.9999999999999996</v>
@@ -10304,7 +10304,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G93" t="s">
         <v>27</v>
@@ -10362,7 +10362,7 @@
         <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D95">
         <v>1.4999999999999999E-2</v>
@@ -10426,7 +10426,7 @@
         <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D97">
         <v>0.3</v>
@@ -10463,8 +10463,8 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="B22" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10484,7 +10484,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -10492,7 +10492,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10500,7 +10500,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -10521,10 +10521,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -10575,13 +10575,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -10598,13 +10598,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>3.6029999999999999E-3</v>
@@ -10630,13 +10630,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>1E-3</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -10662,7 +10662,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10670,7 +10670,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -10678,7 +10678,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -10699,10 +10699,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -10753,13 +10753,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
         <v>128</v>
       </c>
-      <c r="B21" t="s">
-        <v>129</v>
-      </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -10768,7 +10768,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -10805,13 +10805,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>5.2450354690000006E-3</v>
@@ -10869,13 +10869,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
         <v>108</v>
       </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>0.42365758195277881</v>
@@ -10884,7 +10884,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
@@ -10901,10 +10901,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -10936,7 +10936,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -10952,7 +10952,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -10973,10 +10973,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -11027,13 +11027,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
         <v>130</v>
       </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -11042,7 +11042,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s">
         <v>18</v>
@@ -11050,13 +11050,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
-        <v>129</v>
-      </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37">
         <v>1.455251909267939</v>
@@ -11065,7 +11065,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
@@ -11114,13 +11114,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39">
         <v>8.0888266046705761E-3</v>
@@ -11146,13 +11146,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
         <v>108</v>
       </c>
-      <c r="B40" t="s">
-        <v>109</v>
-      </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -11161,7 +11161,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
@@ -11204,10 +11204,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
         <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>4.7150161860281198E-3</v>
@@ -11251,7 +11251,7 @@
         <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>6.6941587826325197E-4</v>
@@ -11292,7 +11292,7 @@
         <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45">
         <v>2.03735267297511E-4</v>
@@ -11333,7 +11333,7 @@
         <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -11362,7 +11362,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -11370,7 +11370,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -11378,7 +11378,7 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -11399,10 +11399,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -11453,13 +11453,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
         <v>132</v>
       </c>
-      <c r="B55" t="s">
-        <v>133</v>
-      </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -11468,7 +11468,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s">
         <v>18</v>
@@ -11476,13 +11476,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
         <v>130</v>
       </c>
-      <c r="B56" t="s">
-        <v>131</v>
-      </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56">
         <v>43.438077634011087</v>
@@ -11491,7 +11491,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
@@ -11508,13 +11508,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>0.54144160562658517</v>
@@ -11540,13 +11540,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58">
         <v>0.35853651380453599</v>
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -11583,7 +11583,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -11591,7 +11591,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -11612,10 +11612,10 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -11666,13 +11666,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -11681,7 +11681,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G68" t="s">
         <v>18</v>
@@ -11689,13 +11689,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
         <v>132</v>
       </c>
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69">
         <v>0.62924190386724055</v>
@@ -11704,7 +11704,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G69" t="s">
         <v>27</v>
@@ -11756,10 +11756,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" t="s">
         <v>49</v>
-      </c>
-      <c r="B71" t="s">
-        <v>50</v>
       </c>
       <c r="C71" t="s">
         <v>45</v>
@@ -11791,13 +11791,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
         <v>108</v>
       </c>
-      <c r="B72" t="s">
-        <v>109</v>
-      </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D72">
         <v>0.30896508011063278</v>
@@ -11806,7 +11806,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
@@ -11829,7 +11829,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -11837,7 +11837,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -11845,7 +11845,7 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -11866,10 +11866,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -11920,13 +11920,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -11935,7 +11935,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G82" t="s">
         <v>18</v>
@@ -11943,13 +11943,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D83">
         <v>0.94726998574516974</v>
@@ -11958,7 +11958,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
@@ -11978,13 +11978,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D84">
         <v>9.4726998574516978E-4</v>
@@ -12010,13 +12010,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
         <v>108</v>
       </c>
-      <c r="B85" t="s">
-        <v>109</v>
-      </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D85">
         <v>7.3451875453676471E-2</v>
@@ -12025,7 +12025,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
@@ -12077,13 +12077,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" t="s">
         <v>108</v>
       </c>
-      <c r="B87" t="s">
-        <v>109</v>
-      </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87">
         <v>1.0089543331548967</v>
@@ -12092,7 +12092,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G87" t="s">
         <v>27</v>
@@ -12150,7 +12150,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -12166,7 +12166,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -12187,10 +12187,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -12241,13 +12241,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" t="s">
         <v>139</v>
       </c>
-      <c r="B98" t="s">
-        <v>140</v>
-      </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -12256,7 +12256,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s">
         <v>18</v>
@@ -12264,13 +12264,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D99">
         <v>27.228712509339935</v>
@@ -12279,7 +12279,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G99" t="s">
         <v>27</v>
@@ -12299,13 +12299,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
         <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D100">
         <v>2.7228712509339933E-2</v>
@@ -12331,13 +12331,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
         <v>108</v>
       </c>
-      <c r="B101" t="s">
-        <v>109</v>
-      </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D101">
         <v>1.9999999999999993</v>
@@ -12346,7 +12346,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G101" t="s">
         <v>27</v>
@@ -12398,13 +12398,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D103">
         <v>3.5000000000000001E-3</v>
@@ -12462,13 +12462,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
         <v>24</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D105">
         <v>0.3</v>
@@ -12517,7 +12517,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -12525,7 +12525,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -12554,10 +12554,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -12608,10 +12608,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
         <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -12623,7 +12623,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -12631,10 +12631,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -12655,13 +12655,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5">
         <f>0.0783801436969301*1.05</f>
@@ -12679,13 +12679,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5">
         <f>0.261267145656434*1.05</f>
@@ -12703,13 +12703,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5">
         <f>0.0326583932070542*1.05</f>
@@ -12727,13 +12727,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
         <v>139</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="5">
         <f>0.0522534291312867*1.05</f>
@@ -12751,10 +12751,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
         <v>144</v>
-      </c>
-      <c r="B15" t="s">
-        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -12766,7 +12766,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -12774,14 +12774,14 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <f>0.5/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -12804,10 +12804,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" t="s">
-        <v>148</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -12820,7 +12820,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
@@ -12828,10 +12828,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
         <v>149</v>
-      </c>
-      <c r="B18" t="s">
-        <v>150</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -12844,7 +12844,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -12867,7 +12867,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
@@ -12875,7 +12875,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20">
         <f>0.1/1000</f>
@@ -12891,12 +12891,12 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21">
         <f>0.05/1000</f>
@@ -12912,7 +12912,7 @@
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-lithium.xlsx
+++ b/premise/data/additional_inventories/lci-lithium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995736C-4528-6444-9125-4E59C7A7F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F05B59A-3BC4-5940-BAD1-0A6C6F6C687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="180" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="4" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" tabRatio="847" activeTab="6" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'LCI - Salar de Cauchari-Olaroz'!$A$1:$M$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LCI - Salar de Olaroz'!$A$1:$M$88</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="157">
   <si>
     <t>database</t>
   </si>
@@ -232,12 +232,6 @@
   </si>
   <si>
     <t>CN</t>
-  </si>
-  <si>
-    <t>electricity, high voltage, production mix</t>
-  </si>
-  <si>
-    <t>CN-QH</t>
   </si>
   <si>
     <t>Olaroz_38</t>
@@ -531,6 +525,9 @@
   </si>
   <si>
     <t>market for neutralising agent, sodium hydroxide-equivalent</t>
+  </si>
+  <si>
+    <t>market group for electricity, high voltage</t>
   </si>
 </sst>
 </file>
@@ -540,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +569,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -599,13 +603,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,37 +943,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1005,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1013,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1042,10 +1047,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1079,10 +1084,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -1102,10 +1107,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1126,10 +1131,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -1150,10 +1155,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -1174,10 +1179,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
         <v>137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -1198,10 +1203,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -1222,10 +1227,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1238,7 +1243,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -1249,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1257,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1286,10 +1291,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1323,10 +1328,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
         <v>45</v>
@@ -1346,10 +1351,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -1361,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -1369,10 +1374,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -1385,7 +1390,7 @@
         <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -1425,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1433,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1462,10 +1467,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1516,10 +1521,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1603,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1641,10 +1646,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1784,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1792,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1821,10 +1826,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1875,10 +1880,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -1933,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -1941,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1970,10 +1975,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2024,10 +2029,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2146,10 +2151,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2303,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -2311,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -2340,10 +2345,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -2394,10 +2399,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2417,10 +2422,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2522,10 +2527,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
@@ -2557,7 +2562,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
@@ -2592,10 +2597,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2630,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -2638,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -2667,10 +2672,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -2721,10 +2726,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2783,10 +2788,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2890,10 +2895,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2916,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -2924,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -2953,10 +2958,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3007,10 +3012,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3030,10 +3035,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3137,10 +3142,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3175,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -3183,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -3212,10 +3217,10 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -3266,10 +3271,10 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3324,10 +3329,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B109" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3433,10 +3438,10 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3471,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -3479,7 +3484,7 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -3508,10 +3513,10 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -3562,10 +3567,10 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3620,10 +3625,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3659,10 +3664,10 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3729,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -3737,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -3766,10 +3771,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B133" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -3820,10 +3825,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B136" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3843,10 +3848,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3882,10 +3887,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B138" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3959,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -3967,7 +3972,7 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -3996,10 +4001,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B146" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -4050,10 +4055,10 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B149" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4108,10 +4113,10 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B151" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4277,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -4285,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4314,10 +4319,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -4368,10 +4373,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -4455,7 +4460,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -4463,7 +4468,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -4492,10 +4497,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -4546,10 +4551,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>54</v>
@@ -4561,7 +4566,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -4706,10 +4711,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -4721,7 +4726,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
@@ -4828,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4836,7 +4841,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -4865,10 +4870,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -4919,10 +4924,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -4934,7 +4939,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
@@ -4945,10 +4950,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
         <v>54</v>
@@ -4960,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
@@ -5084,10 +5089,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
@@ -5099,7 +5104,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
@@ -5122,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -5130,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -5159,10 +5164,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -5213,10 +5218,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -5228,7 +5233,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G54" t="s">
         <v>18</v>
@@ -5271,10 +5276,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
@@ -5286,7 +5291,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
@@ -5376,10 +5381,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
         <v>54</v>
@@ -5391,7 +5396,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
@@ -5466,10 +5471,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
@@ -5481,7 +5486,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G62" t="s">
         <v>27</v>
@@ -5512,10 +5517,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>45</v>
@@ -5535,7 +5540,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D65">
         <v>1.1780852612682483E-2</v>
@@ -5550,12 +5555,12 @@
         <v>21</v>
       </c>
       <c r="H65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66">
         <v>1.6725901857512168E-3</v>
@@ -5570,12 +5575,12 @@
         <v>21</v>
       </c>
       <c r="H66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D67">
         <v>5.0904918696776183E-4</v>
@@ -5590,7 +5595,7 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5598,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -5606,7 +5611,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -5635,10 +5640,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -5674,10 +5679,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
         <v>54</v>
@@ -5689,7 +5694,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G77" t="s">
         <v>18</v>
@@ -5697,10 +5702,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
         <v>54</v>
@@ -5713,7 +5718,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
@@ -5745,10 +5750,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
         <v>54</v>
@@ -5761,7 +5766,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
@@ -5874,7 +5879,7 @@
   </sheetPr>
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -5894,7 +5899,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5902,7 +5907,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5931,10 +5936,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -5985,10 +5990,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -6000,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -6142,10 +6147,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -6157,7 +6162,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -6264,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -6272,7 +6277,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -6301,10 +6306,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -6355,10 +6360,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
@@ -6370,7 +6375,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -6378,10 +6383,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -6393,7 +6398,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
@@ -6448,10 +6453,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -6463,7 +6468,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -6483,7 +6488,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -6518,10 +6523,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
@@ -6533,7 +6538,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -6556,7 +6561,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -6564,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -6593,10 +6598,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -6647,10 +6652,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -6662,7 +6667,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
@@ -6670,10 +6675,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
@@ -6685,7 +6690,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -6763,10 +6768,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>54</v>
@@ -6778,7 +6783,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
@@ -6801,7 +6806,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -6809,7 +6814,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -6838,10 +6843,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -6892,10 +6897,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
@@ -6907,7 +6912,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
         <v>18</v>
@@ -6947,10 +6952,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
         <v>54</v>
@@ -6962,7 +6967,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
         <v>27</v>
@@ -7017,10 +7022,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
         <v>54</v>
@@ -7032,7 +7037,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G60" t="s">
         <v>27</v>
@@ -7055,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -7063,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -7092,10 +7097,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -7146,10 +7151,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
         <v>54</v>
@@ -7161,7 +7166,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G70" t="s">
         <v>18</v>
@@ -7201,10 +7206,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
         <v>54</v>
@@ -7216,7 +7221,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
@@ -7236,10 +7241,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
         <v>37</v>
@@ -7271,10 +7276,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
         <v>54</v>
@@ -7286,7 +7291,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
@@ -7309,7 +7314,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -7317,7 +7322,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -7346,10 +7351,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -7400,10 +7405,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
         <v>54</v>
@@ -7415,7 +7420,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G84" t="s">
         <v>18</v>
@@ -7423,10 +7428,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
         <v>54</v>
@@ -7438,7 +7443,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
@@ -7522,10 +7527,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
         <v>45</v>
@@ -7688,10 +7693,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
         <v>54</v>
@@ -7703,7 +7708,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G93" t="s">
         <v>27</v>
@@ -7723,7 +7728,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D94">
         <v>3.7950677799495399E-3</v>
@@ -7738,7 +7743,7 @@
         <v>21</v>
       </c>
       <c r="H94" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -7764,7 +7769,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D95">
         <v>5.3880591937555198E-4</v>
@@ -7779,7 +7784,7 @@
         <v>21</v>
       </c>
       <c r="H95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -7805,7 +7810,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D96">
         <v>1.6398441024473301E-4</v>
@@ -7820,7 +7825,7 @@
         <v>21</v>
       </c>
       <c r="H96" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -7849,7 +7854,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -7857,7 +7862,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -7886,10 +7891,10 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -7940,10 +7945,10 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s">
         <v>54</v>
@@ -7955,7 +7960,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G106" t="s">
         <v>18</v>
@@ -7963,10 +7968,10 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" t="s">
         <v>54</v>
@@ -7978,7 +7983,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G107" t="s">
         <v>27</v>
@@ -8030,10 +8035,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
         <v>54</v>
@@ -8045,7 +8050,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G109" t="s">
         <v>27</v>
@@ -8126,7 +8131,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -8134,7 +8139,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8163,10 +8168,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B118" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -8217,10 +8222,10 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C121" t="s">
         <v>54</v>
@@ -8232,7 +8237,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G121" t="s">
         <v>18</v>
@@ -8240,10 +8245,10 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C122" t="s">
         <v>54</v>
@@ -8255,7 +8260,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G122" t="s">
         <v>27</v>
@@ -8307,10 +8312,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B124" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C124" t="s">
         <v>54</v>
@@ -8322,7 +8327,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G124" t="s">
         <v>27</v>
@@ -8504,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -8512,7 +8517,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -8541,10 +8546,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -8595,10 +8600,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -8610,7 +8615,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -8752,10 +8757,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -8767,7 +8772,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -8874,7 +8879,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -8882,7 +8887,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -8911,10 +8916,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -8965,10 +8970,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
@@ -8980,7 +8985,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -9020,10 +9025,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -9035,7 +9040,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -9113,10 +9118,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -9128,7 +9133,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -9148,7 +9153,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
@@ -9183,10 +9188,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -9198,7 +9203,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
@@ -9221,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -9229,7 +9234,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -9258,10 +9263,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -9312,10 +9317,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
@@ -9327,7 +9332,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
@@ -9335,10 +9340,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
@@ -9350,7 +9355,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
         <v>27</v>
@@ -9472,10 +9477,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
         <v>54</v>
@@ -9487,7 +9492,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -9510,7 +9515,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -9518,7 +9523,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -9547,10 +9552,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -9601,10 +9606,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
         <v>54</v>
@@ -9616,7 +9621,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G59" t="s">
         <v>18</v>
@@ -9656,10 +9661,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
         <v>54</v>
@@ -9671,7 +9676,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
@@ -9749,10 +9754,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
         <v>54</v>
@@ -9764,7 +9769,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
@@ -9787,7 +9792,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -9795,7 +9800,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -9824,10 +9829,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -9878,10 +9883,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
         <v>54</v>
@@ -9893,7 +9898,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G74" t="s">
         <v>18</v>
@@ -9901,10 +9906,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
         <v>54</v>
@@ -9916,7 +9921,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
@@ -9968,10 +9973,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
         <v>54</v>
@@ -9983,7 +9988,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
@@ -10035,10 +10040,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
         <v>54</v>
@@ -10050,7 +10055,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
@@ -10108,7 +10113,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -10116,7 +10121,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -10145,10 +10150,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -10199,10 +10204,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" t="s">
         <v>137</v>
-      </c>
-      <c r="B90" t="s">
-        <v>139</v>
       </c>
       <c r="C90" t="s">
         <v>54</v>
@@ -10214,7 +10219,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G90" t="s">
         <v>18</v>
@@ -10222,10 +10227,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
         <v>54</v>
@@ -10237,7 +10242,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G91" t="s">
         <v>27</v>
@@ -10289,10 +10294,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
         <v>54</v>
@@ -10304,7 +10309,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G93" t="s">
         <v>27</v>
@@ -10463,8 +10468,8 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10484,7 +10489,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -10492,7 +10497,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10521,10 +10526,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -10575,10 +10580,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -10598,13 +10603,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>3.6029999999999999E-3</v>
@@ -10662,7 +10667,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10670,7 +10675,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -10699,10 +10704,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -10753,10 +10758,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
@@ -10768,7 +10773,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -10805,13 +10810,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>5.2450354690000006E-3</v>
@@ -10869,10 +10874,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
@@ -10884,7 +10889,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
@@ -10901,10 +10906,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -10936,7 +10941,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -10944,7 +10949,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -10973,10 +10978,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -11027,10 +11032,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
         <v>58</v>
@@ -11042,7 +11047,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
         <v>18</v>
@@ -11050,10 +11055,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
@@ -11065,7 +11070,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
@@ -11113,14 +11118,14 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>59</v>
+      <c r="A39" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39">
         <v>8.0888266046705761E-3</v>
@@ -11146,10 +11151,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
@@ -11161,7 +11166,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
@@ -11204,10 +11209,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -11236,7 +11241,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D43">
         <v>4.7150161860281198E-3</v>
@@ -11251,7 +11256,7 @@
         <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -11277,7 +11282,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <v>6.6941587826325197E-4</v>
@@ -11292,7 +11297,7 @@
         <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -11318,7 +11323,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <v>2.03735267297511E-4</v>
@@ -11333,7 +11338,7 @@
         <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -11362,7 +11367,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -11370,7 +11375,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -11399,10 +11404,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -11453,10 +11458,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
@@ -11468,7 +11473,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G55" t="s">
         <v>18</v>
@@ -11476,10 +11481,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -11491,7 +11496,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
@@ -11507,14 +11512,14 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>59</v>
+      <c r="A57" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>0.54144160562658517</v>
@@ -11539,14 +11544,14 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>59</v>
+      <c r="A58" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58">
         <v>0.35853651380453599</v>
@@ -11575,7 +11580,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -11583,7 +11588,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -11612,10 +11617,10 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -11666,10 +11671,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
         <v>58</v>
@@ -11681,7 +11686,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G68" t="s">
         <v>18</v>
@@ -11689,10 +11694,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
         <v>58</v>
@@ -11704,7 +11709,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G69" t="s">
         <v>27</v>
@@ -11791,10 +11796,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s">
         <v>58</v>
@@ -11806,7 +11811,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
@@ -11829,7 +11834,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -11837,7 +11842,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -11866,10 +11871,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -11920,10 +11925,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
         <v>58</v>
@@ -11935,7 +11940,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G82" t="s">
         <v>18</v>
@@ -11943,10 +11948,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
         <v>58</v>
@@ -11958,7 +11963,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
@@ -11977,14 +11982,14 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>59</v>
+      <c r="A84" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D84">
         <v>9.4726998574516978E-4</v>
@@ -12010,10 +12015,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
         <v>58</v>
@@ -12025,7 +12030,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
@@ -12077,10 +12082,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
         <v>58</v>
@@ -12092,7 +12097,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G87" t="s">
         <v>27</v>
@@ -12150,7 +12155,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -12158,7 +12163,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -12187,10 +12192,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -12241,10 +12246,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
         <v>58</v>
@@ -12256,7 +12261,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G98" t="s">
         <v>18</v>
@@ -12264,10 +12269,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
         <v>58</v>
@@ -12279,7 +12284,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G99" t="s">
         <v>27</v>
@@ -12298,14 +12303,14 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>59</v>
+      <c r="A100" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B100" t="s">
         <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D100">
         <v>2.7228712509339933E-2</v>
@@ -12331,10 +12336,10 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
         <v>58</v>
@@ -12346,7 +12351,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G101" t="s">
         <v>27</v>
@@ -12397,14 +12402,14 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>59</v>
+      <c r="A103" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B103" t="s">
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D103">
         <v>3.5000000000000001E-3</v>
@@ -12461,14 +12466,14 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>59</v>
+      <c r="A105" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B105" t="s">
         <v>24</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D105">
         <v>0.3</v>
@@ -12517,7 +12522,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -12525,7 +12530,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -12554,10 +12559,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -12608,10 +12613,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -12623,7 +12628,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -12631,10 +12636,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -12655,10 +12660,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -12679,10 +12684,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -12703,10 +12708,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
         <v>137</v>
-      </c>
-      <c r="B13" t="s">
-        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -12727,10 +12732,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
@@ -12751,10 +12756,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -12766,7 +12771,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -12804,10 +12809,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -12820,7 +12825,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
@@ -12828,10 +12833,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -12844,7 +12849,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -12867,7 +12872,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
@@ -12875,7 +12880,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20">
         <f>0.1/1000</f>
@@ -12891,12 +12896,12 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D21">
         <f>0.05/1000</f>
@@ -12912,7 +12917,7 @@
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
